--- a/Base/Teams/Lions/Target Depth Data.xlsx
+++ b/Base/Teams/Lions/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="C2">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="C2">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="D2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>5</v>

--- a/Base/Teams/Lions/Target Depth Data.xlsx
+++ b/Base/Teams/Lions/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="C3">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="C3">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Lions/Target Depth Data.xlsx
+++ b/Base/Teams/Lions/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="C2">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="C2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Lions/Target Depth Data.xlsx
+++ b/Base/Teams/Lions/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="C3">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="C3">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D3">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Lions/Target Depth Data.xlsx
+++ b/Base/Teams/Lions/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="C3">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D3">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C3">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>2</v>
